--- a/Sistema/data/historial_prestamos.xlsx
+++ b/Sistema/data/historial_prestamos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1377,7 +1377,7 @@
         <v>45770.37965027778</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45770.37974312346</v>
+        <v>45770.379743125</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1390,6 +1390,207 @@
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jhonathan</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Oficial</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>EQ-002</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Laptop Dell</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" s="2" t="n">
+        <v>45776.66991229167</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Prestado</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jhonathan</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Oficial</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>EQ-010</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Radio Comunicador</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" s="2" t="n">
+        <v>45776.66991229167</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Prestado</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jhonathan</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Oficial</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>EQ-001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Laptop Dell</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" s="2" t="n">
+        <v>45776.68377900463</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Prestado</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jhonathan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Oficial</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>EQ-009</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Radio Comunicador</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" s="2" t="n">
+        <v>45776.68377900463</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Prestado</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jhonathan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Oficial</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>EQ-007</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Proyector Epson</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" s="2" t="n">
+        <v>45791.67583650942</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Prestado</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
